--- a/data/case1/15/Q_device_13.xlsx
+++ b/data/case1/15/Q_device_13.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.040476464728891194</v>
+        <v>-0.0062038245579894317</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.040406126488807058</v>
+        <v>-0.0061970331349624477</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0098534936120412021</v>
+        <v>-0.010780502056723006</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0099089907409868252</v>
+        <v>-0.010780285198182735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0048343596523175219</v>
+        <v>-0.01706229068708795</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0048346052259368435</v>
+        <v>-0.017066299336157158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.06167734632627514</v>
+        <v>-0.073732523962045979</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.06168047475525399</v>
+        <v>-0.073730918118873376</v>
       </c>
     </row>
   </sheetData>
